--- a/backend/schema/BaoCao_1.xlsx
+++ b/backend/schema/BaoCao_1.xlsx
@@ -1,46 +1,940 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KietVU\QuanLyDiem\CodeTrue\backend\schema\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02680489-2317-479D-AED8-CB6DF20B9E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Danh sách thành viên" sheetId="1" r:id="rId1"/>
     <sheet name="Danh sách giao dịch" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="301">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tên Zalo</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Điểm hiện tại</t>
+  </si>
+  <si>
+    <t>A Athanh nb</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>A Dũng 1977</t>
+  </si>
+  <si>
+    <t>A Đức Airport</t>
+  </si>
+  <si>
+    <t>A Hiếu Sân Bay</t>
+  </si>
+  <si>
+    <t>A Thành Phú Đô</t>
+  </si>
+  <si>
+    <t>A Trọng 880</t>
+  </si>
+  <si>
+    <t>Admin1</t>
+  </si>
+  <si>
+    <t>Ae Chạy Xe Sb Và Đường Dài</t>
+  </si>
+  <si>
+    <t>Airport Carvip</t>
+  </si>
+  <si>
+    <t>Anh Điệp</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Anh Huy</t>
+  </si>
+  <si>
+    <t>Anh Khánh</t>
+  </si>
+  <si>
+    <t>Anh Khoa</t>
+  </si>
+  <si>
+    <t>Anh Luận</t>
+  </si>
+  <si>
+    <t>Anh Nghị</t>
+  </si>
+  <si>
+    <t>Anh Quang</t>
+  </si>
+  <si>
+    <t>Anh Tú</t>
+  </si>
+  <si>
+    <t>Anh Tú Airport</t>
+  </si>
+  <si>
+    <t>Anh Tuấn</t>
+  </si>
+  <si>
+    <t>B M Tùng</t>
+  </si>
+  <si>
+    <t>Ba Duy</t>
+  </si>
+  <si>
+    <t>Bạch Ngọc Đức</t>
+  </si>
+  <si>
+    <t>Bằng Hip</t>
+  </si>
+  <si>
+    <t>Bao Chung</t>
+  </si>
+  <si>
+    <t>Bảo Xe Du Lịch</t>
+  </si>
+  <si>
+    <t>Bảolinhminhchâu</t>
+  </si>
+  <si>
+    <t>Bee Driver</t>
+  </si>
+  <si>
+    <t>Bích</t>
+  </si>
+  <si>
+    <t>Biển Xanh</t>
+  </si>
+  <si>
+    <t>Binh Boong</t>
+  </si>
+  <si>
+    <t>Bình Minh Khai Innova</t>
+  </si>
+  <si>
+    <t>Bìnhboong</t>
+  </si>
+  <si>
+    <t>Bố Tép</t>
+  </si>
+  <si>
+    <t>Bờm Đại ca</t>
+  </si>
+  <si>
+    <t>Bốn Long Biên Innova</t>
+  </si>
+  <si>
+    <t>Bossbui</t>
+  </si>
+  <si>
+    <t>Bùi Duy</t>
+  </si>
+  <si>
+    <t>Bùi Đô</t>
+  </si>
+  <si>
+    <t>Bùi Huy Quang</t>
+  </si>
+  <si>
+    <t>Bùi Quang Thành</t>
+  </si>
+  <si>
+    <t>Cá Dọn Bể</t>
+  </si>
+  <si>
+    <t>Cảng Hàng Không Quốc Tế Airport</t>
+  </si>
+  <si>
+    <t>Cao Thanh Hải</t>
+  </si>
+  <si>
+    <t>Cao Trần</t>
+  </si>
+  <si>
+    <t>Cao Việt Long</t>
+  </si>
+  <si>
+    <t>Champakhao Xathani</t>
+  </si>
+  <si>
+    <t>Châu Anh Tourism</t>
+  </si>
+  <si>
+    <t>Chiến Trần</t>
+  </si>
+  <si>
+    <t>ChiếnPhúcTân</t>
+  </si>
+  <si>
+    <t>Cho thuê xe Du Lịch Hà Nội</t>
+  </si>
+  <si>
+    <t>Cho Thuê Xe Hà Nội</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>Chuyểntiềnnhanh Hà Nội</t>
+  </si>
+  <si>
+    <t>Click Gooo</t>
+  </si>
+  <si>
+    <t>Công Chung sân bay</t>
+  </si>
+  <si>
+    <t>Công Nguyễn</t>
+  </si>
+  <si>
+    <t>Công Tuyến</t>
+  </si>
+  <si>
+    <t>Cops Tran</t>
+  </si>
+  <si>
+    <t>Cty Cổ Phần Vận Tải và Dịch Vụ BK</t>
+  </si>
+  <si>
+    <t>Cty Dịch vụ Vận Tải Linh Anh</t>
+  </si>
+  <si>
+    <t>Cty Lâm Quyết</t>
+  </si>
+  <si>
+    <t>Cty tnhh Du Lịch Bảo An</t>
+  </si>
+  <si>
+    <t>Cty Tnhh Mtv Hưng Thịnh Group Travel</t>
+  </si>
+  <si>
+    <t>Cty vận tải Vũ Kiên</t>
+  </si>
+  <si>
+    <t>Cty Xe Nội Bài Tour</t>
+  </si>
+  <si>
+    <t>Cu Ly Thành Phố</t>
+  </si>
+  <si>
+    <t>Cường</t>
+  </si>
+  <si>
+    <t>Cường AirPort</t>
+  </si>
+  <si>
+    <t>Cường Hải Phòng</t>
+  </si>
+  <si>
+    <t>Cuong Nguyen</t>
+  </si>
+  <si>
+    <t>Cuong Nguyenduc</t>
+  </si>
+  <si>
+    <t>Cường Râu Airport</t>
+  </si>
+  <si>
+    <t>Cường Vios</t>
+  </si>
+  <si>
+    <t>Cường Vv</t>
+  </si>
+  <si>
+    <t>Dd</t>
+  </si>
+  <si>
+    <t>Dịch Vụ Đưa Đón Sân Bay</t>
+  </si>
+  <si>
+    <t>DịchVụ Nội Bài</t>
+  </si>
+  <si>
+    <t>DịchVụ Nội bài</t>
+  </si>
+  <si>
+    <t>Diệp Diệp</t>
+  </si>
+  <si>
+    <t>Dinh Dac</t>
+  </si>
+  <si>
+    <t>DKT PLUS</t>
+  </si>
+  <si>
+    <t>Doanminh</t>
+  </si>
+  <si>
+    <t>Dovannd</t>
+  </si>
+  <si>
+    <t>Du lịch Go Car</t>
+  </si>
+  <si>
+    <t>Du Lịch Hoàng Nam</t>
+  </si>
+  <si>
+    <t>Du lịch Khánh Chi Đẹp Trai</t>
+  </si>
+  <si>
+    <t>Du Lịch Phong</t>
+  </si>
+  <si>
+    <t>Du Lịch Tứ Phương</t>
+  </si>
+  <si>
+    <t>Du Tran Khanh</t>
+  </si>
+  <si>
+    <t>Duc Bui</t>
+  </si>
+  <si>
+    <t>Duc Nguyen</t>
+  </si>
+  <si>
+    <t>Duc Quang Duong</t>
+  </si>
+  <si>
+    <t>Duc Vu</t>
+  </si>
+  <si>
+    <t>Dulichthanglong</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t>Dũng Béo</t>
+  </si>
+  <si>
+    <t>Dũng Hân Travel</t>
+  </si>
+  <si>
+    <t>Dũng Wiliam</t>
+  </si>
+  <si>
+    <t>Dũng.</t>
+  </si>
+  <si>
+    <t>Dunghn</t>
+  </si>
+  <si>
+    <t>Duong Duc Anh</t>
+  </si>
+  <si>
+    <t>Dương Mạnh Hà</t>
+  </si>
+  <si>
+    <t>Dương Minh Quân</t>
+  </si>
+  <si>
+    <t>Dương Nghị</t>
+  </si>
+  <si>
+    <t>Dương Phú</t>
+  </si>
+  <si>
+    <t>Duy Béo xe sân bay</t>
+  </si>
+  <si>
+    <t>Duy Coffee</t>
+  </si>
+  <si>
+    <t>Duy Duy</t>
+  </si>
+  <si>
+    <t>Duy Tấn</t>
+  </si>
+  <si>
+    <t>Duy Thanh</t>
+  </si>
+  <si>
+    <t>Duy Tuyên</t>
+  </si>
+  <si>
+    <t>DuyCương</t>
+  </si>
+  <si>
+    <t>Duytoan</t>
+  </si>
+  <si>
+    <t>Đặng Khá</t>
+  </si>
+  <si>
+    <t>Đăng Khoa</t>
+  </si>
+  <si>
+    <t>Đặng Sơn</t>
+  </si>
+  <si>
+    <t>Đặng Văn Hiếu</t>
+  </si>
+  <si>
+    <t>Đặt Xe Nội Bài Hà Nội</t>
+  </si>
+  <si>
+    <t>Đh - Vnt Travel</t>
+  </si>
+  <si>
+    <t>Đh Bảo Linh Travel</t>
+  </si>
+  <si>
+    <t>ĐH xe Dịch Vụ Anh Duy</t>
+  </si>
+  <si>
+    <t>Đh Xe MP</t>
+  </si>
+  <si>
+    <t>Điều hành PBA Thành Trung</t>
+  </si>
+  <si>
+    <t>Điều hành PHCAR airport</t>
+  </si>
+  <si>
+    <t>Điều Hành Vnwondertour</t>
+  </si>
+  <si>
+    <t>Điều Xe Nội Bài</t>
+  </si>
+  <si>
+    <t>Đình Anh</t>
+  </si>
+  <si>
+    <t>Đinh Bá Hoàn</t>
+  </si>
+  <si>
+    <t>Đinh Kim Dung</t>
+  </si>
+  <si>
+    <t>Đỗ Bách</t>
+  </si>
+  <si>
+    <t>Đỗ Chính</t>
+  </si>
+  <si>
+    <t>Đỗ Hiếu</t>
+  </si>
+  <si>
+    <t>Đỗ Nhật Đức</t>
+  </si>
+  <si>
+    <t>Đoàn Huân</t>
+  </si>
+  <si>
+    <t>Đoàn Văn Dũng</t>
+  </si>
+  <si>
+    <t>Độc Bước</t>
+  </si>
+  <si>
+    <t>Đức Béo</t>
+  </si>
+  <si>
+    <t>Đức Expander</t>
+  </si>
+  <si>
+    <t>Đức Phúc Car</t>
+  </si>
+  <si>
+    <t>Đức Rio Noibaiairport</t>
+  </si>
+  <si>
+    <t>Đức Sơn</t>
+  </si>
+  <si>
+    <t>Đức Thịnh</t>
+  </si>
+  <si>
+    <t>Đức Thuần</t>
+  </si>
+  <si>
+    <t>Đức Trọng</t>
+  </si>
+  <si>
+    <t>Đức Trọng PS</t>
+  </si>
+  <si>
+    <t>Đức Vũ</t>
+  </si>
+  <si>
+    <t>Đức.</t>
+  </si>
+  <si>
+    <t>Fuclaze Nguyen</t>
+  </si>
+  <si>
+    <t>Garung</t>
+  </si>
+  <si>
+    <t>Gia Airport</t>
+  </si>
+  <si>
+    <t>Gia Bảo</t>
+  </si>
+  <si>
+    <t>Gia Bảo (2)</t>
+  </si>
+  <si>
+    <t>Gia cát Lượng</t>
+  </si>
+  <si>
+    <t>Giang Bi</t>
+  </si>
+  <si>
+    <t>Giangnam</t>
+  </si>
+  <si>
+    <t>H M Khoa</t>
+  </si>
+  <si>
+    <t>H Noibai</t>
+  </si>
+  <si>
+    <t>Hà Fortuner</t>
+  </si>
+  <si>
+    <t>Hà Trang Lomisine</t>
+  </si>
+  <si>
+    <t>Ha Tưởng</t>
+  </si>
+  <si>
+    <t>Hải</t>
+  </si>
+  <si>
+    <t>Hải Anh Ml</t>
+  </si>
+  <si>
+    <t>Hái Hoa Tặc</t>
+  </si>
+  <si>
+    <t>Hải Kim</t>
+  </si>
+  <si>
+    <t>Hải Nguyễn</t>
+  </si>
+  <si>
+    <t>Hanhxd1</t>
+  </si>
+  <si>
+    <t>Hậu Mazda</t>
+  </si>
+  <si>
+    <t>Hiển Xe Du Lịch Bảo Minh</t>
+  </si>
+  <si>
+    <t>Hiếu Béo</t>
+  </si>
+  <si>
+    <t>Hn Travel</t>
+  </si>
+  <si>
+    <t>Hổ Ăn Thịt Dê</t>
+  </si>
+  <si>
+    <t>Hoà Bình Travel</t>
+  </si>
+  <si>
+    <t>Hòa Tầu</t>
+  </si>
+  <si>
+    <t>Hoà Tít</t>
+  </si>
+  <si>
+    <t>Hoài An</t>
+  </si>
+  <si>
+    <t>Hoàn.</t>
+  </si>
+  <si>
+    <t>Hoàng Bình vios</t>
+  </si>
+  <si>
+    <t>Hoàng Cương</t>
+  </si>
+  <si>
+    <t>Hoàng Dũng Airport</t>
+  </si>
+  <si>
+    <t>Hoàng Hải Anh</t>
+  </si>
+  <si>
+    <t>Hoàng Hiếu Motor</t>
+  </si>
+  <si>
+    <t>Hoàng Hùng</t>
+  </si>
+  <si>
+    <t>Hoàng Hưởng</t>
+  </si>
+  <si>
+    <t>Hoàng Long 16</t>
+  </si>
+  <si>
+    <t>Hoàng Milano</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Transport</t>
+  </si>
+  <si>
+    <t>Hoàng Nam Sb</t>
+  </si>
+  <si>
+    <t>Hoàng Phong Travel</t>
+  </si>
+  <si>
+    <t>Hoàng Sơn TX</t>
+  </si>
+  <si>
+    <t>Hoàng Tâm Limosine</t>
+  </si>
+  <si>
+    <t>Hoàng Thắng</t>
+  </si>
+  <si>
+    <t>Hoàng Thanh</t>
+  </si>
+  <si>
+    <t>Hoàng Thu Minh Travel</t>
+  </si>
+  <si>
+    <t>Hoàng Thuỷ</t>
+  </si>
+  <si>
+    <t>Hoàng Trần</t>
+  </si>
+  <si>
+    <t>Hoanglong</t>
+  </si>
+  <si>
+    <t>Hồng Diệp</t>
+  </si>
+  <si>
+    <t>Hồng Hải</t>
+  </si>
+  <si>
+    <t>Hồng Kim</t>
+  </si>
+  <si>
+    <t>Hợp Đặng</t>
+  </si>
+  <si>
+    <t>Htdtrands</t>
+  </si>
+  <si>
+    <t>Htktravelcomvn</t>
+  </si>
+  <si>
+    <t>Hùng Bạch Mai</t>
+  </si>
+  <si>
+    <t>Hùng Chuyên Tuyến Nội Bài</t>
+  </si>
+  <si>
+    <t>Hưng Doãn Thế</t>
+  </si>
+  <si>
+    <t>Hùng Hải Airport</t>
+  </si>
+  <si>
+    <t>Hùng Kyn</t>
+  </si>
+  <si>
+    <t>Hùng Năm Hai</t>
+  </si>
+  <si>
+    <t>Hungyn</t>
+  </si>
+  <si>
+    <t>Hương Minh Anh</t>
+  </si>
+  <si>
+    <t>Hữu Thành</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Huy Dzee</t>
+  </si>
+  <si>
+    <t>Huy Tây Hồ</t>
+  </si>
+  <si>
+    <t>Huy võ Limosine</t>
+  </si>
+  <si>
+    <t>Huyhuy</t>
+  </si>
+  <si>
+    <t>Huỳnh Văn Dũng</t>
+  </si>
+  <si>
+    <t>Imperia Airport</t>
+  </si>
+  <si>
+    <t>Jin Pc</t>
+  </si>
+  <si>
+    <t>Kế Toán Full House</t>
+  </si>
+  <si>
+    <t>Kế toán Pgroup</t>
+  </si>
+  <si>
+    <t>Kekhukho</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Khắc Định</t>
+  </si>
+  <si>
+    <t>Khang Vũ Airport</t>
+  </si>
+  <si>
+    <t>Khangvinh Dh</t>
+  </si>
+  <si>
+    <t>Khanh Bỉ</t>
+  </si>
+  <si>
+    <t>Khánh Driver</t>
+  </si>
+  <si>
+    <t>Khánh Toàn</t>
+  </si>
+  <si>
+    <t>Khoa Diamond</t>
+  </si>
+  <si>
+    <t>Khoa Nguyen</t>
+  </si>
+  <si>
+    <t>Kiên Na Vnec</t>
+  </si>
+  <si>
+    <t>Kien Ngo Van</t>
+  </si>
+  <si>
+    <t>Kiên Tp</t>
+  </si>
+  <si>
+    <t>Kiên Trang Vũ</t>
+  </si>
+  <si>
+    <t>Kiến Vàng Travel Car</t>
+  </si>
+  <si>
+    <t>Kiên Vũ</t>
+  </si>
+  <si>
+    <t>Lê Thị Kim Yến</t>
+  </si>
+  <si>
+    <t>Ngô Quang Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Đại</t>
+  </si>
+  <si>
+    <t>Nguyễn Tanh</t>
+  </si>
+  <si>
+    <t>Nhất Sân Bay</t>
+  </si>
+  <si>
+    <t>Nhimcoi</t>
+  </si>
+  <si>
+    <t>Phạm Hiếu Đh Limo Green</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Posedion</t>
+  </si>
+  <si>
+    <t>Private Car Transfer In Hanoi Airport</t>
+  </si>
+  <si>
+    <t>Quang Hiệp</t>
+  </si>
+  <si>
+    <t>Thu Trần</t>
+  </si>
+  <si>
+    <t>Tiểu Ngưu</t>
+  </si>
+  <si>
+    <t>Tmanhcuong</t>
+  </si>
+  <si>
+    <t>Tôn Anh Dương</t>
+  </si>
+  <si>
+    <t>Trang Dcar Limosine</t>
+  </si>
+  <si>
+    <t>Tú Vios</t>
+  </si>
+  <si>
+    <t>Tuấn Ba</t>
+  </si>
+  <si>
+    <t>Vận Tải Minh Tâm</t>
+  </si>
+  <si>
+    <t>Việt Tiệp</t>
+  </si>
+  <si>
+    <t>Vinh Đại Ca Nguyễn Ngọc Vinh</t>
+  </si>
+  <si>
+    <t>Vũ Thanh</t>
+  </si>
+  <si>
+    <t>Xe Sân Bay Bảo Phúc</t>
+  </si>
+  <si>
+    <t>Người gửi</t>
+  </si>
+  <si>
+    <t>Người nhận</t>
+  </si>
+  <si>
+    <t>Loại giao dịch</t>
+  </si>
+  <si>
+    <t>Số điểm</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Ngày giờ</t>
+  </si>
+  <si>
+    <t>Giao lịch</t>
+  </si>
+  <si>
+    <t>Tiên 13h30 6 phạm ngũ lão sedan ki10 thu 200k</t>
+  </si>
+  <si>
+    <t>16:35:06 5/12/2025</t>
+  </si>
+  <si>
+    <t>Oke 12:30  housinco  n.xiển&gt;&gt; sân bay t1 sedan b lx ko vội ck220k</t>
+  </si>
+  <si>
+    <t>Hủy lịch</t>
+  </si>
+  <si>
+    <t>Hủy lịch: Oke 12:30  housinco  n.xiển&gt;&gt; sân bay t1 sedan b lx ko vội ck220k</t>
+  </si>
+  <si>
+    <t>14:03:36 5/12/2025</t>
+  </si>
+  <si>
+    <t>San điểm</t>
+  </si>
+  <si>
+    <t>Toán Full House</t>
+  </si>
+  <si>
+    <t>13:57:40 5/12/2025</t>
+  </si>
+  <si>
+    <t>@Lê Thị Kim Yến 4đ</t>
+  </si>
+  <si>
+    <t>@Việt Tiệp 1đ</t>
+  </si>
+  <si>
+    <t>@Tmanhcuong 2.5đ</t>
+  </si>
+  <si>
+    <t>@Phạm Hiếu Đh Limo Green 1đ</t>
+  </si>
+  <si>
+    <t>@Phoenix 0.5</t>
+  </si>
+  <si>
+    <t>@Anh Điệp  Thuê Xe Giang Gia 0.5</t>
+  </si>
+  <si>
+    <t>Anh   4d   Toán Full House</t>
+  </si>
+  <si>
+    <t>@Kế Toán Full House 5đ</t>
+  </si>
+  <si>
+    <t>13:53:16 5/12/2025</t>
+  </si>
+  <si>
+    <t>13:50:40 5/12/2025</t>
+  </si>
+  <si>
+    <t>13:50:12 5/12/2025</t>
+  </si>
+  <si>
+    <t>13:36:56 5/12/2025</t>
+  </si>
+  <si>
+    <t>13:10:47 5/12/2025</t>
+  </si>
+  <si>
+    <t>12:50:05 5/12/2025</t>
+  </si>
+  <si>
+    <t>12:00:41 5/12/2025</t>
+  </si>
+  <si>
+    <t>11:46:49 5/12/2025</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11:45:48 5/12/2025</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -66,13 +960,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,4433 +1299,4442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A216" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Tên Zalo</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Số điện thoại</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Điểm hiện tại</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>265</v>
       </c>
-      <c r="B2" t="str">
-        <v>A Athanh nb</v>
-      </c>
-      <c r="C2" t="str">
-        <v>0123456789</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>267</v>
       </c>
-      <c r="B3" t="str">
-        <v>A Dũng 1977</v>
-      </c>
-      <c r="C3" t="str">
-        <v>0123456789</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>266</v>
       </c>
-      <c r="B4" t="str">
-        <v>A Đức Airport</v>
-      </c>
-      <c r="C4" t="str">
-        <v>0123456789</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>268</v>
       </c>
-      <c r="B5" t="str">
-        <v>A Hiếu Sân Bay</v>
-      </c>
-      <c r="C5" t="str">
-        <v>0123456789</v>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>269</v>
       </c>
-      <c r="B6" t="str">
-        <v>A Thành Phú Đô</v>
-      </c>
-      <c r="C6" t="str">
-        <v>0123456789</v>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>270</v>
       </c>
-      <c r="B7" t="str">
-        <v>A Trọng 880</v>
-      </c>
-      <c r="C7" t="str">
-        <v>0123456789</v>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>493</v>
       </c>
-      <c r="B8" t="str">
-        <v>Admin1</v>
-      </c>
-      <c r="C8" t="str">
-        <v>0123456789</v>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
       <c r="D8">
         <v>19.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>263</v>
       </c>
-      <c r="B9" t="str">
-        <v>Ae Chạy Xe Sb Và Đường Dài</v>
-      </c>
-      <c r="C9" t="str">
-        <v>0123456789</v>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>278</v>
       </c>
-      <c r="B10" t="str">
-        <v>Airport Carvip</v>
-      </c>
-      <c r="C10" t="str">
-        <v>0123456789</v>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
       <c r="D10">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>505</v>
       </c>
-      <c r="B11" t="str">
-        <v>Anh Điệp</v>
-      </c>
-      <c r="C11" t="str">
-        <v/>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
       </c>
       <c r="D11">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>280</v>
       </c>
-      <c r="B12" t="str">
-        <v>Anh Huy</v>
-      </c>
-      <c r="C12" t="str">
-        <v>0123456789</v>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>271</v>
       </c>
-      <c r="B13" t="str">
-        <v>Anh Khánh</v>
-      </c>
-      <c r="C13" t="str">
-        <v>0123456789</v>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
       </c>
       <c r="D13">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>272</v>
       </c>
-      <c r="B14" t="str">
-        <v>Anh Khoa</v>
-      </c>
-      <c r="C14" t="str">
-        <v>0123456789</v>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>273</v>
       </c>
-      <c r="B15" t="str">
-        <v>Anh Luận</v>
-      </c>
-      <c r="C15" t="str">
-        <v>0123456789</v>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>274</v>
       </c>
-      <c r="B16" t="str">
-        <v>Anh Nghị</v>
-      </c>
-      <c r="C16" t="str">
-        <v>0123456789</v>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>279</v>
       </c>
-      <c r="B17" t="str">
-        <v>Anh Quang</v>
-      </c>
-      <c r="C17" t="str">
-        <v>0123456789</v>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
       <c r="D17">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>275</v>
       </c>
-      <c r="B18" t="str">
-        <v>Anh Tú</v>
-      </c>
-      <c r="C18" t="str">
-        <v>0123456789</v>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>276</v>
       </c>
-      <c r="B19" t="str">
-        <v>Anh Tú Airport</v>
-      </c>
-      <c r="C19" t="str">
-        <v>0123456789</v>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
       </c>
       <c r="D19">
         <v>3.75</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>277</v>
       </c>
-      <c r="B20" t="str">
-        <v>Anh Tuấn</v>
-      </c>
-      <c r="C20" t="str">
-        <v>0123456789</v>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>282</v>
       </c>
-      <c r="B21" t="str">
-        <v>B M Tùng</v>
-      </c>
-      <c r="C21" t="str">
-        <v>0123456789</v>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
       </c>
       <c r="D21">
         <v>-1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>283</v>
       </c>
-      <c r="B22" t="str">
-        <v>Ba Duy</v>
-      </c>
-      <c r="C22" t="str">
-        <v>0123456789</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
       <c r="D22">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>284</v>
       </c>
-      <c r="B23" t="str">
-        <v>Bạch Ngọc Đức</v>
-      </c>
-      <c r="C23" t="str">
-        <v>0123456789</v>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
       </c>
       <c r="D23">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>285</v>
       </c>
-      <c r="B24" t="str">
-        <v>Bằng Hip</v>
-      </c>
-      <c r="C24" t="str">
-        <v>0123456789</v>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
       </c>
       <c r="D24">
         <v>-1.75</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>303</v>
       </c>
-      <c r="B25" t="str">
-        <v>Bao Chung</v>
-      </c>
-      <c r="C25" t="str">
-        <v>0123456789</v>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
       </c>
       <c r="D25">
         <v>0.75</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>286</v>
       </c>
-      <c r="B26" t="str">
-        <v>Bảo Xe Du Lịch</v>
-      </c>
-      <c r="C26" t="str">
-        <v>0123456789</v>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
       </c>
       <c r="D26">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>287</v>
       </c>
-      <c r="B27" t="str">
-        <v>Bảolinhminhchâu</v>
-      </c>
-      <c r="C27" t="str">
-        <v>0123456789</v>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
       </c>
       <c r="D27">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>288</v>
       </c>
-      <c r="B28" t="str">
-        <v>Bee Driver</v>
-      </c>
-      <c r="C28" t="str">
-        <v>0123456789</v>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
       </c>
       <c r="D28">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>302</v>
       </c>
-      <c r="B29" t="str">
-        <v>Bích</v>
-      </c>
-      <c r="C29" t="str">
-        <v>0123456789</v>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>289</v>
       </c>
-      <c r="B30" t="str">
-        <v>Biển Xanh</v>
-      </c>
-      <c r="C30" t="str">
-        <v>0123456789</v>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
       </c>
       <c r="D30">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>290</v>
       </c>
-      <c r="B31" t="str">
-        <v>Binh Boong</v>
-      </c>
-      <c r="C31" t="str">
-        <v>0123456789</v>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>291</v>
       </c>
-      <c r="B32" t="str">
-        <v>Bình Minh Khai Innova</v>
-      </c>
-      <c r="C32" t="str">
-        <v>0123456789</v>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>292</v>
       </c>
-      <c r="B33" t="str">
-        <v>Bìnhboong</v>
-      </c>
-      <c r="C33" t="str">
-        <v>0123456789</v>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
       </c>
       <c r="D33">
         <v>2.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>293</v>
       </c>
-      <c r="B34" t="str">
-        <v>Bố Tép</v>
-      </c>
-      <c r="C34" t="str">
-        <v>0123456789</v>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
       </c>
       <c r="D34">
         <v>0.75</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>294</v>
       </c>
-      <c r="B35" t="str">
-        <v>Bờm Đại ca</v>
-      </c>
-      <c r="C35" t="str">
-        <v>0123456789</v>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
       </c>
       <c r="D35">
         <v>0.25</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>295</v>
       </c>
-      <c r="B36" t="str">
-        <v>Bốn Long Biên Innova</v>
-      </c>
-      <c r="C36" t="str">
-        <v>0123456789</v>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
       </c>
       <c r="D36">
         <v>-1</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>297</v>
       </c>
-      <c r="B37" t="str">
-        <v>Bossbui</v>
-      </c>
-      <c r="C37" t="str">
-        <v>0123456789</v>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>299</v>
       </c>
-      <c r="B38" t="str">
-        <v>Bùi Duy</v>
-      </c>
-      <c r="C38" t="str">
-        <v>0123456789</v>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
       </c>
       <c r="D38">
         <v>1.75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>298</v>
       </c>
-      <c r="B39" t="str">
-        <v>Bùi Đô</v>
-      </c>
-      <c r="C39" t="str">
-        <v>0123456789</v>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
       </c>
       <c r="D39">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>300</v>
       </c>
-      <c r="B40" t="str">
-        <v>Bùi Huy Quang</v>
-      </c>
-      <c r="C40" t="str">
-        <v>0123456789</v>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
       </c>
       <c r="D40">
         <v>-1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>301</v>
       </c>
-      <c r="B41" t="str">
-        <v>Bùi Quang Thành</v>
-      </c>
-      <c r="C41" t="str">
-        <v>0123456789</v>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
       </c>
       <c r="D41">
         <v>-1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>304</v>
       </c>
-      <c r="B42" t="str">
-        <v>Cá Dọn Bể</v>
-      </c>
-      <c r="C42" t="str">
-        <v>0123456789</v>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
       </c>
       <c r="D42">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>305</v>
       </c>
-      <c r="B43" t="str">
-        <v>Cảng Hàng Không Quốc Tế Airport</v>
-      </c>
-      <c r="C43" t="str">
-        <v>0123456789</v>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
       </c>
       <c r="D43">
         <v>3.75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>306</v>
       </c>
-      <c r="B44" t="str">
-        <v>Cao Thanh Hải</v>
-      </c>
-      <c r="C44" t="str">
-        <v>0123456789</v>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
       </c>
       <c r="D44">
         <v>2.25</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>307</v>
       </c>
-      <c r="B45" t="str">
-        <v>Cao Trần</v>
-      </c>
-      <c r="C45" t="str">
-        <v>0123456789</v>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
       </c>
       <c r="D45">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>335</v>
       </c>
-      <c r="B46" t="str">
-        <v>Cao Việt Long</v>
-      </c>
-      <c r="C46" t="str">
-        <v>0123456789</v>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
       </c>
       <c r="D46">
         <v>2.75</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>308</v>
       </c>
-      <c r="B47" t="str">
-        <v>Champakhao Xathani</v>
-      </c>
-      <c r="C47" t="str">
-        <v>0123456789</v>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
       </c>
       <c r="D47">
         <v>-1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>309</v>
       </c>
-      <c r="B48" t="str">
-        <v>Châu Anh Tourism</v>
-      </c>
-      <c r="C48" t="str">
-        <v>0123456789</v>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
       </c>
       <c r="D48">
         <v>2.25</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>310</v>
       </c>
-      <c r="B49" t="str">
-        <v>Chiến Trần</v>
-      </c>
-      <c r="C49" t="str">
-        <v>0123456789</v>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
       </c>
       <c r="D49">
         <v>1.5</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>311</v>
       </c>
-      <c r="B50" t="str">
-        <v>ChiếnPhúcTân</v>
-      </c>
-      <c r="C50" t="str">
-        <v>0123456789</v>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
       </c>
       <c r="D50">
         <v>-1.75</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>312</v>
       </c>
-      <c r="B51" t="str">
-        <v>Cho thuê xe Du Lịch Hà Nội</v>
-      </c>
-      <c r="C51" t="str">
-        <v>0123456789</v>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
       </c>
       <c r="D51">
         <v>3.75</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>313</v>
       </c>
-      <c r="B52" t="str">
-        <v>Cho Thuê Xe Hà Nội</v>
-      </c>
-      <c r="C52" t="str">
-        <v>0123456789</v>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
       </c>
       <c r="D52">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>336</v>
       </c>
-      <c r="B53" t="str">
-        <v>Chung</v>
-      </c>
-      <c r="C53" t="str">
-        <v>0123456789</v>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
       </c>
       <c r="D53">
         <v>-1</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>314</v>
       </c>
-      <c r="B54" t="str">
-        <v>Chuyểntiềnnhanh Hà Nội</v>
-      </c>
-      <c r="C54" t="str">
-        <v>0123456789</v>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>334</v>
       </c>
-      <c r="B55" t="str">
-        <v>Click Gooo</v>
-      </c>
-      <c r="C55" t="str">
-        <v>0123456789</v>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>337</v>
       </c>
-      <c r="B56" t="str">
-        <v>Công Chung sân bay</v>
-      </c>
-      <c r="C56" t="str">
-        <v>0123456789</v>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>315</v>
       </c>
-      <c r="B57" t="str">
-        <v>Công Nguyễn</v>
-      </c>
-      <c r="C57" t="str">
-        <v>0123456789</v>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
       </c>
       <c r="D57">
         <v>0.75</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>333</v>
       </c>
-      <c r="B58" t="str">
-        <v>Công Tuyến</v>
-      </c>
-      <c r="C58" t="str">
-        <v>0123456789</v>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>316</v>
       </c>
-      <c r="B59" t="str">
-        <v>Cops Tran</v>
-      </c>
-      <c r="C59" t="str">
-        <v>0123456789</v>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>317</v>
       </c>
-      <c r="B60" t="str">
-        <v>Cty Cổ Phần Vận Tải và Dịch Vụ BK</v>
-      </c>
-      <c r="C60" t="str">
-        <v>0123456789</v>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
       </c>
       <c r="D60">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>318</v>
       </c>
-      <c r="B61" t="str">
-        <v>Cty Dịch vụ Vận Tải Linh Anh</v>
-      </c>
-      <c r="C61" t="str">
-        <v>0123456789</v>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
       </c>
       <c r="D61">
         <v>0.25</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>261</v>
       </c>
-      <c r="B62" t="str">
-        <v>Cty Lâm Quyết</v>
-      </c>
-      <c r="C62" t="str">
-        <v>0123456789</v>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
       </c>
       <c r="D62">
         <v>3.25</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>319</v>
       </c>
-      <c r="B63" t="str">
-        <v>Cty tnhh Du Lịch Bảo An</v>
-      </c>
-      <c r="C63" t="str">
-        <v>0123456789</v>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
       </c>
       <c r="D63">
         <v>0.25</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>324</v>
       </c>
-      <c r="B64" t="str">
-        <v>Cty Tnhh Mtv Hưng Thịnh Group Travel</v>
-      </c>
-      <c r="C64" t="str">
-        <v>0123456789</v>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
       </c>
       <c r="D64">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>320</v>
       </c>
-      <c r="B65" t="str">
-        <v>Cty vận tải Vũ Kiên</v>
-      </c>
-      <c r="C65" t="str">
-        <v>0123456789</v>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
       </c>
       <c r="D65">
         <v>-2.5</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>322</v>
       </c>
-      <c r="B66" t="str">
-        <v>Cty Xe Nội Bài Tour</v>
-      </c>
-      <c r="C66" t="str">
-        <v>0123456789</v>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
       </c>
       <c r="D66">
         <v>2.75</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>323</v>
       </c>
-      <c r="B67" t="str">
-        <v>Cu Ly Thành Phố</v>
-      </c>
-      <c r="C67" t="str">
-        <v>0123456789</v>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>325</v>
       </c>
-      <c r="B68" t="str">
-        <v>Cường</v>
-      </c>
-      <c r="C68" t="str">
-        <v>0123456789</v>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
       </c>
       <c r="D68">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>326</v>
       </c>
-      <c r="B69" t="str">
-        <v>Cường AirPort</v>
-      </c>
-      <c r="C69" t="str">
-        <v>0123456789</v>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
       </c>
       <c r="D69">
         <v>1.5</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>327</v>
       </c>
-      <c r="B70" t="str">
-        <v>Cường Hải Phòng</v>
-      </c>
-      <c r="C70" t="str">
-        <v>0123456789</v>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
       </c>
       <c r="D70">
         <v>2.25</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>328</v>
       </c>
-      <c r="B71" t="str">
-        <v>Cuong Nguyen</v>
-      </c>
-      <c r="C71" t="str">
-        <v>0123456789</v>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
       </c>
       <c r="D71">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>329</v>
       </c>
-      <c r="B72" t="str">
-        <v>Cuong Nguyenduc</v>
-      </c>
-      <c r="C72" t="str">
-        <v>0123456789</v>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>332</v>
       </c>
-      <c r="B73" t="str">
-        <v>Cường Râu Airport</v>
-      </c>
-      <c r="C73" t="str">
-        <v>0123456789</v>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
       </c>
       <c r="D73">
         <v>1.25</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>330</v>
       </c>
-      <c r="B74" t="str">
-        <v>Cường Vios</v>
-      </c>
-      <c r="C74" t="str">
-        <v>0123456789</v>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
       </c>
       <c r="D74">
         <v>0.75</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>331</v>
       </c>
-      <c r="B75" t="str">
-        <v>Cường Vv</v>
-      </c>
-      <c r="C75" t="str">
-        <v>0123456789</v>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
       </c>
       <c r="D75">
         <v>3.5</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>351</v>
       </c>
-      <c r="B76" t="str">
-        <v>Dd</v>
-      </c>
-      <c r="C76" t="str">
-        <v>0123456789</v>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
       </c>
       <c r="D76">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>347</v>
       </c>
-      <c r="B77" t="str">
-        <v>Dịch Vụ Đưa Đón Sân Bay</v>
-      </c>
-      <c r="C77" t="str">
-        <v>0123456789</v>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>348</v>
       </c>
-      <c r="B78" t="str">
-        <v>DịchVụ Nội Bài</v>
-      </c>
-      <c r="C78" t="str">
-        <v>0123456789</v>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
       </c>
       <c r="D78">
         <v>-1</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>349</v>
       </c>
-      <c r="B79" t="str">
-        <v>DịchVụ Nội bài</v>
-      </c>
-      <c r="C79" t="str">
-        <v>0123456789</v>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>350</v>
       </c>
-      <c r="B80" t="str">
-        <v>Diệp Diệp</v>
-      </c>
-      <c r="C80" t="str">
-        <v>0123456789</v>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>357</v>
       </c>
-      <c r="B81" t="str">
-        <v>Dinh Dac</v>
-      </c>
-      <c r="C81" t="str">
-        <v>0123456789</v>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
       </c>
       <c r="D81">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>371</v>
       </c>
-      <c r="B82" t="str">
-        <v>DKT PLUS</v>
-      </c>
-      <c r="C82" t="str">
-        <v>0123456789</v>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
       </c>
       <c r="D82">
         <v>0.25</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>364</v>
       </c>
-      <c r="B83" t="str">
-        <v>Doanminh</v>
-      </c>
-      <c r="C83" t="str">
-        <v>0123456789</v>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
       </c>
       <c r="D83">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>366</v>
       </c>
-      <c r="B84" t="str">
-        <v>Dovannd</v>
-      </c>
-      <c r="C84" t="str">
-        <v>0123456789</v>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
       </c>
       <c r="D84">
         <v>-1</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>368</v>
       </c>
-      <c r="B85" t="str">
-        <v>Du lịch Go Car</v>
-      </c>
-      <c r="C85" t="str">
-        <v>0123456789</v>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
       </c>
       <c r="D85">
         <v>-1</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>386</v>
       </c>
-      <c r="B86" t="str">
-        <v>Du Lịch Hoàng Nam</v>
-      </c>
-      <c r="C86" t="str">
-        <v>0123456789</v>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
       </c>
       <c r="D86">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>255</v>
       </c>
-      <c r="B87" t="str">
-        <v>Du lịch Khánh Chi Đẹp Trai</v>
-      </c>
-      <c r="C87" t="str">
-        <v>0123456789</v>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>507</v>
       </c>
-      <c r="B88" t="str">
-        <v>Du Lịch Phong</v>
-      </c>
-      <c r="C88" t="str">
-        <v>0123456789</v>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
       </c>
       <c r="D88">
         <v>11</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>369</v>
       </c>
-      <c r="B89" t="str">
-        <v>Du Lịch Tứ Phương</v>
-      </c>
-      <c r="C89" t="str">
-        <v>0123456789</v>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
       </c>
       <c r="D89">
         <v>-1.75</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>370</v>
       </c>
-      <c r="B90" t="str">
-        <v>Du Tran Khanh</v>
-      </c>
-      <c r="C90" t="str">
-        <v>0123456789</v>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>373</v>
       </c>
-      <c r="B91" t="str">
-        <v>Duc Bui</v>
-      </c>
-      <c r="C91" t="str">
-        <v>0123456789</v>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
       </c>
       <c r="D91">
         <v>0.25</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>384</v>
       </c>
-      <c r="B92" t="str">
-        <v>Duc Nguyen</v>
-      </c>
-      <c r="C92" t="str">
-        <v>0123456789</v>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
       </c>
       <c r="D92">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>251</v>
       </c>
-      <c r="B93" t="str">
-        <v>Duc Quang Duong</v>
-      </c>
-      <c r="C93" t="str">
-        <v>0123456789</v>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>380</v>
       </c>
-      <c r="B94" t="str">
-        <v>Duc Vu</v>
-      </c>
-      <c r="C94" t="str">
-        <v>0123456789</v>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
       </c>
       <c r="D94">
         <v>0.75</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>385</v>
       </c>
-      <c r="B95" t="str">
-        <v>Dulichthanglong</v>
-      </c>
-      <c r="C95" t="str">
-        <v>0123456789</v>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>387</v>
       </c>
-      <c r="B96" t="str">
-        <v>Dũng</v>
-      </c>
-      <c r="C96" t="str">
-        <v>0123456789</v>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
       </c>
       <c r="D96">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>389</v>
       </c>
-      <c r="B97" t="str">
-        <v>Dũng Béo</v>
-      </c>
-      <c r="C97" t="str">
-        <v>0123456789</v>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>391</v>
       </c>
-      <c r="B98" t="str">
-        <v>Dũng Hân Travel</v>
-      </c>
-      <c r="C98" t="str">
-        <v>0123456789</v>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>253</v>
       </c>
-      <c r="B99" t="str">
-        <v>Dũng Wiliam</v>
-      </c>
-      <c r="C99" t="str">
-        <v>0123456789</v>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
       </c>
       <c r="D99">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>392</v>
       </c>
-      <c r="B100" t="str">
-        <v>Dũng.</v>
-      </c>
-      <c r="C100" t="str">
-        <v>0123456789</v>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
       </c>
       <c r="D100">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>393</v>
       </c>
-      <c r="B101" t="str">
-        <v>Dunghn</v>
-      </c>
-      <c r="C101" t="str">
-        <v>0123456789</v>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>394</v>
       </c>
-      <c r="B102" t="str">
-        <v>Duong Duc Anh</v>
-      </c>
-      <c r="C102" t="str">
-        <v>0123456789</v>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
       </c>
       <c r="D102">
         <v>3.25</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>395</v>
       </c>
-      <c r="B103" t="str">
-        <v>Dương Mạnh Hà</v>
-      </c>
-      <c r="C103" t="str">
-        <v>0123456789</v>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>396</v>
       </c>
-      <c r="B104" t="str">
-        <v>Dương Minh Quân</v>
-      </c>
-      <c r="C104" t="str">
-        <v>0123456789</v>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
       </c>
       <c r="D104">
         <v>-1</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>397</v>
       </c>
-      <c r="B105" t="str">
-        <v>Dương Nghị</v>
-      </c>
-      <c r="C105" t="str">
-        <v>0123456789</v>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
       </c>
       <c r="D105">
         <v>0.5</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>398</v>
       </c>
-      <c r="B106" t="str">
-        <v>Dương Phú</v>
-      </c>
-      <c r="C106" t="str">
-        <v>0123456789</v>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
       </c>
       <c r="D106">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>399</v>
       </c>
-      <c r="B107" t="str">
-        <v>Duy Béo xe sân bay</v>
-      </c>
-      <c r="C107" t="str">
-        <v>0123456789</v>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
       </c>
       <c r="D107">
         <v>-1</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>400</v>
       </c>
-      <c r="B108" t="str">
-        <v>Duy Coffee</v>
-      </c>
-      <c r="C108" t="str">
-        <v>0123456789</v>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
       </c>
       <c r="D108">
         <v>0.75</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>401</v>
       </c>
-      <c r="B109" t="str">
-        <v>Duy Duy</v>
-      </c>
-      <c r="C109" t="str">
-        <v>0123456789</v>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
       </c>
       <c r="D109">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>254</v>
       </c>
-      <c r="B110" t="str">
-        <v>Duy Tấn</v>
-      </c>
-      <c r="C110" t="str">
-        <v>0123456789</v>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
       </c>
       <c r="D110">
         <v>4.75</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>405</v>
       </c>
-      <c r="B111" t="str">
-        <v>Duy Thanh</v>
-      </c>
-      <c r="C111" t="str">
-        <v>0123456789</v>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
       </c>
       <c r="D111">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>404</v>
       </c>
-      <c r="B112" t="str">
-        <v>Duy Tuyên</v>
-      </c>
-      <c r="C112" t="str">
-        <v>0123456789</v>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
       </c>
       <c r="D112">
         <v>0.25</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>402</v>
       </c>
-      <c r="B113" t="str">
-        <v>DuyCương</v>
-      </c>
-      <c r="C113" t="str">
-        <v>0123456789</v>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
       </c>
       <c r="D113">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>403</v>
       </c>
-      <c r="B114" t="str">
-        <v>Duytoan</v>
-      </c>
-      <c r="C114" t="str">
-        <v>0123456789</v>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>367</v>
       </c>
-      <c r="B115" t="str">
-        <v>Đặng Khá</v>
-      </c>
-      <c r="C115" t="str">
-        <v>0123456789</v>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>339</v>
       </c>
-      <c r="B116" t="str">
-        <v>Đăng Khoa</v>
-      </c>
-      <c r="C116" t="str">
-        <v>0123456789</v>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
       </c>
       <c r="D116">
         <v>0.75</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>340</v>
       </c>
-      <c r="B117" t="str">
-        <v>Đặng Sơn</v>
-      </c>
-      <c r="C117" t="str">
-        <v>0123456789</v>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
       </c>
       <c r="D117">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>341</v>
       </c>
-      <c r="B118" t="str">
-        <v>Đặng Văn Hiếu</v>
-      </c>
-      <c r="C118" t="str">
-        <v>0123456789</v>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
       </c>
       <c r="D118">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>342</v>
       </c>
-      <c r="B119" t="str">
-        <v>Đặt Xe Nội Bài Hà Nội</v>
-      </c>
-      <c r="C119" t="str">
-        <v>0123456789</v>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
       </c>
       <c r="D119">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>343</v>
       </c>
-      <c r="B120" t="str">
-        <v>Đh - Vnt Travel</v>
-      </c>
-      <c r="C120" t="str">
-        <v>0123456789</v>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
       </c>
       <c r="D120">
         <v>1.25</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>346</v>
       </c>
-      <c r="B121" t="str">
-        <v>Đh Bảo Linh Travel</v>
-      </c>
-      <c r="C121" t="str">
-        <v>0123456789</v>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
       </c>
       <c r="D121">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>344</v>
       </c>
-      <c r="B122" t="str">
-        <v>ĐH xe Dịch Vụ Anh Duy</v>
-      </c>
-      <c r="C122" t="str">
-        <v>0123456789</v>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>345</v>
       </c>
-      <c r="B123" t="str">
-        <v>Đh Xe MP</v>
-      </c>
-      <c r="C123" t="str">
-        <v>0123456789</v>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
       </c>
       <c r="D123">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>353</v>
       </c>
-      <c r="B124" t="str">
-        <v>Điều hành PBA Thành Trung</v>
-      </c>
-      <c r="C124" t="str">
-        <v>0123456789</v>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
       </c>
       <c r="D124">
         <v>4</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>354</v>
       </c>
-      <c r="B125" t="str">
-        <v>Điều hành PHCAR airport</v>
-      </c>
-      <c r="C125" t="str">
-        <v>0123456789</v>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
       </c>
       <c r="D125">
         <v>3.25</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>352</v>
       </c>
-      <c r="B126" t="str">
-        <v>Điều Hành Vnwondertour</v>
-      </c>
-      <c r="C126" t="str">
-        <v>0123456789</v>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
       </c>
       <c r="D126">
         <v>0.5</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>250</v>
       </c>
-      <c r="B127" t="str">
-        <v>Điều Xe Nội Bài</v>
-      </c>
-      <c r="C127" t="str">
-        <v>0123456789</v>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
       </c>
       <c r="D127">
         <v>2.5</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>355</v>
       </c>
-      <c r="B128" t="str">
-        <v>Đình Anh</v>
-      </c>
-      <c r="C128" t="str">
-        <v>0123456789</v>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
       </c>
       <c r="D128">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>356</v>
       </c>
-      <c r="B129" t="str">
-        <v>Đinh Bá Hoàn</v>
-      </c>
-      <c r="C129" t="str">
-        <v>0123456789</v>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
       </c>
       <c r="D129">
         <v>-1</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>358</v>
       </c>
-      <c r="B130" t="str">
-        <v>Đinh Kim Dung</v>
-      </c>
-      <c r="C130" t="str">
-        <v>0123456789</v>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
       </c>
       <c r="D130">
         <v>0.25</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>359</v>
       </c>
-      <c r="B131" t="str">
-        <v>Đỗ Bách</v>
-      </c>
-      <c r="C131" t="str">
-        <v>0123456789</v>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
       </c>
       <c r="D131">
         <v>2.5</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>360</v>
       </c>
-      <c r="B132" t="str">
-        <v>Đỗ Chính</v>
-      </c>
-      <c r="C132" t="str">
-        <v>0123456789</v>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
       </c>
       <c r="D132">
         <v>0.25</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>361</v>
       </c>
-      <c r="B133" t="str">
-        <v>Đỗ Hiếu</v>
-      </c>
-      <c r="C133" t="str">
-        <v>0123456789</v>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
       </c>
       <c r="D133">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>383</v>
       </c>
-      <c r="B134" t="str">
-        <v>Đỗ Nhật Đức</v>
-      </c>
-      <c r="C134" t="str">
-        <v>0123456789</v>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
       </c>
       <c r="D134">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>362</v>
       </c>
-      <c r="B135" t="str">
-        <v>Đoàn Huân</v>
-      </c>
-      <c r="C135" t="str">
-        <v>0123456789</v>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>363</v>
       </c>
-      <c r="B136" t="str">
-        <v>Đoàn Văn Dũng</v>
-      </c>
-      <c r="C136" t="str">
-        <v>0123456789</v>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
       </c>
       <c r="D136">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>365</v>
       </c>
-      <c r="B137" t="str">
-        <v>Độc Bước</v>
-      </c>
-      <c r="C137" t="str">
-        <v>0123456789</v>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
       </c>
       <c r="D137">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>372</v>
       </c>
-      <c r="B138" t="str">
-        <v>Đức Béo</v>
-      </c>
-      <c r="C138" t="str">
-        <v>0123456789</v>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
       </c>
       <c r="D138">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>374</v>
       </c>
-      <c r="B139" t="str">
-        <v>Đức Expander</v>
-      </c>
-      <c r="C139" t="str">
-        <v>0123456789</v>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>375</v>
       </c>
-      <c r="B140" t="str">
-        <v>Đức Phúc Car</v>
-      </c>
-      <c r="C140" t="str">
-        <v>0123456789</v>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>252</v>
       </c>
-      <c r="B141" t="str">
-        <v>Đức Rio Noibaiairport</v>
-      </c>
-      <c r="C141" t="str">
-        <v>0123456789</v>
+      <c r="B141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
       </c>
       <c r="D141">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>376</v>
       </c>
-      <c r="B142" t="str">
-        <v>Đức Sơn</v>
-      </c>
-      <c r="C142" t="str">
-        <v>0123456789</v>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
       </c>
       <c r="D142">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>377</v>
       </c>
-      <c r="B143" t="str">
-        <v>Đức Thịnh</v>
-      </c>
-      <c r="C143" t="str">
-        <v>0123456789</v>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>378</v>
       </c>
-      <c r="B144" t="str">
-        <v>Đức Thuần</v>
-      </c>
-      <c r="C144" t="str">
-        <v>0123456789</v>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
       </c>
       <c r="D144">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>506</v>
       </c>
-      <c r="B145" t="str">
-        <v>Đức Trọng</v>
-      </c>
-      <c r="C145" t="str">
-        <v/>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
       </c>
       <c r="D145">
         <v>6</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>379</v>
       </c>
-      <c r="B146" t="str">
-        <v>Đức Trọng PS</v>
-      </c>
-      <c r="C146" t="str">
-        <v>0123456789</v>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
       </c>
       <c r="D146">
         <v>0.5</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>381</v>
       </c>
-      <c r="B147" t="str">
-        <v>Đức Vũ</v>
-      </c>
-      <c r="C147" t="str">
-        <v>0123456789</v>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
       </c>
       <c r="D147">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>382</v>
       </c>
-      <c r="B148" t="str">
-        <v>Đức.</v>
-      </c>
-      <c r="C148" t="str">
-        <v>0123456789</v>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
       </c>
       <c r="D148">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>406</v>
       </c>
-      <c r="B149" t="str">
-        <v>Fuclaze Nguyen</v>
-      </c>
-      <c r="C149" t="str">
-        <v>0123456789</v>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
       </c>
       <c r="D149">
         <v>0.25</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>407</v>
       </c>
-      <c r="B150" t="str">
-        <v>Garung</v>
-      </c>
-      <c r="C150" t="str">
-        <v>0123456789</v>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" t="s">
+        <v>5</v>
       </c>
       <c r="D150">
         <v>0.25</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>408</v>
       </c>
-      <c r="B151" t="str">
-        <v>Gia Airport</v>
-      </c>
-      <c r="C151" t="str">
-        <v>0123456789</v>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" t="s">
+        <v>5</v>
       </c>
       <c r="D151">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>409</v>
       </c>
-      <c r="B152" t="str">
-        <v>Gia Bảo</v>
-      </c>
-      <c r="C152" t="str">
-        <v>0123456789</v>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
       </c>
       <c r="D152">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>410</v>
       </c>
-      <c r="B153" t="str">
-        <v>Gia Bảo (2)</v>
-      </c>
-      <c r="C153" t="str">
-        <v>0123456789</v>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
       </c>
       <c r="D153">
         <v>-1</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>411</v>
       </c>
-      <c r="B154" t="str">
-        <v>Gia cát Lượng</v>
-      </c>
-      <c r="C154" t="str">
-        <v>0123456789</v>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
       </c>
       <c r="D154">
         <v>2.75</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>412</v>
       </c>
-      <c r="B155" t="str">
-        <v>Giang Bi</v>
-      </c>
-      <c r="C155" t="str">
-        <v>0123456789</v>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
       </c>
       <c r="D155">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>413</v>
       </c>
-      <c r="B156" t="str">
-        <v>Giangnam</v>
-      </c>
-      <c r="C156" t="str">
-        <v>0123456789</v>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" t="s">
+        <v>5</v>
       </c>
       <c r="D156">
         <v>-1</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>414</v>
       </c>
-      <c r="B157" t="str">
-        <v>H M Khoa</v>
-      </c>
-      <c r="C157" t="str">
-        <v>0123456789</v>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
       </c>
       <c r="D157">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>415</v>
       </c>
-      <c r="B158" t="str">
-        <v>H Noibai</v>
-      </c>
-      <c r="C158" t="str">
-        <v>0123456789</v>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
       </c>
       <c r="D158">
         <v>1.5</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>416</v>
       </c>
-      <c r="B159" t="str">
-        <v>Hà Fortuner</v>
-      </c>
-      <c r="C159" t="str">
-        <v>0123456789</v>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" t="s">
+        <v>5</v>
       </c>
       <c r="D159">
         <v>1</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>417</v>
       </c>
-      <c r="B160" t="str">
-        <v>Hà Trang Lomisine</v>
-      </c>
-      <c r="C160" t="str">
-        <v>0123456789</v>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" t="s">
+        <v>5</v>
       </c>
       <c r="D160">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>418</v>
       </c>
-      <c r="B161" t="str">
-        <v>Ha Tưởng</v>
-      </c>
-      <c r="C161" t="str">
-        <v>0123456789</v>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
       </c>
       <c r="D161">
         <v>0.25</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>420</v>
       </c>
-      <c r="B162" t="str">
-        <v>Hải</v>
-      </c>
-      <c r="C162" t="str">
-        <v>0123456789</v>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
       </c>
       <c r="D162">
         <v>-1</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>421</v>
       </c>
-      <c r="B163" t="str">
-        <v>Hải Anh Ml</v>
-      </c>
-      <c r="C163" t="str">
-        <v>0123456789</v>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
       </c>
       <c r="D163">
         <v>-2.25</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>475</v>
       </c>
-      <c r="B164" t="str">
-        <v>Hái Hoa Tặc</v>
-      </c>
-      <c r="C164" t="str">
-        <v>0123456789</v>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
       </c>
       <c r="D164">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>422</v>
       </c>
-      <c r="B165" t="str">
-        <v>Hải Kim</v>
-      </c>
-      <c r="C165" t="str">
-        <v>0123456789</v>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5</v>
       </c>
       <c r="D165">
         <v>-1</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>423</v>
       </c>
-      <c r="B166" t="str">
-        <v>Hải Nguyễn</v>
-      </c>
-      <c r="C166" t="str">
-        <v>0123456789</v>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>424</v>
       </c>
-      <c r="B167" t="str">
-        <v>Hanhxd1</v>
-      </c>
-      <c r="C167" t="str">
-        <v>0123456789</v>
+      <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
       </c>
       <c r="D167">
         <v>3.5</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>425</v>
       </c>
-      <c r="B168" t="str">
-        <v>Hậu Mazda</v>
-      </c>
-      <c r="C168" t="str">
-        <v>0123456789</v>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
       </c>
       <c r="D168">
         <v>0.25</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>426</v>
       </c>
-      <c r="B169" t="str">
-        <v>Hiển Xe Du Lịch Bảo Minh</v>
-      </c>
-      <c r="C169" t="str">
-        <v>0123456789</v>
+      <c r="B169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
       </c>
       <c r="D169">
         <v>6</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>427</v>
       </c>
-      <c r="B170" t="str">
-        <v>Hiếu Béo</v>
-      </c>
-      <c r="C170" t="str">
-        <v>0123456789</v>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
       </c>
       <c r="D170">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>474</v>
       </c>
-      <c r="B171" t="str">
-        <v>Hn Travel</v>
-      </c>
-      <c r="C171" t="str">
-        <v>0123456789</v>
+      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
       </c>
       <c r="D171">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>428</v>
       </c>
-      <c r="B172" t="str">
-        <v>Hổ Ăn Thịt Dê</v>
-      </c>
-      <c r="C172" t="str">
-        <v>0123456789</v>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>429</v>
       </c>
-      <c r="B173" t="str">
-        <v>Hoà Bình Travel</v>
-      </c>
-      <c r="C173" t="str">
-        <v>0123456789</v>
+      <c r="B173" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
       </c>
       <c r="D173">
         <v>3.75</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>430</v>
       </c>
-      <c r="B174" t="str">
-        <v>Hòa Tầu</v>
-      </c>
-      <c r="C174" t="str">
-        <v>0123456789</v>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
       </c>
       <c r="D174">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>431</v>
       </c>
-      <c r="B175" t="str">
-        <v>Hoà Tít</v>
-      </c>
-      <c r="C175" t="str">
-        <v>0123456789</v>
+      <c r="B175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
       </c>
       <c r="D175">
         <v>-1</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>432</v>
       </c>
-      <c r="B176" t="str">
-        <v>Hoài An</v>
-      </c>
-      <c r="C176" t="str">
-        <v>0123456789</v>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
       </c>
       <c r="D176">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>433</v>
       </c>
-      <c r="B177" t="str">
-        <v>Hoàn.</v>
-      </c>
-      <c r="C177" t="str">
-        <v>0123456789</v>
+      <c r="B177" t="s">
+        <v>181</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
       </c>
       <c r="D177">
         <v>0.5</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>434</v>
       </c>
-      <c r="B178" t="str">
-        <v>Hoàng Bình vios</v>
-      </c>
-      <c r="C178" t="str">
-        <v>0123456789</v>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
       </c>
       <c r="D178">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>435</v>
       </c>
-      <c r="B179" t="str">
-        <v>Hoàng Cương</v>
-      </c>
-      <c r="C179" t="str">
-        <v>0123456789</v>
+      <c r="B179" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179" t="s">
+        <v>5</v>
       </c>
       <c r="D179">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>436</v>
       </c>
-      <c r="B180" t="str">
-        <v>Hoàng Dũng Airport</v>
-      </c>
-      <c r="C180" t="str">
-        <v>0123456789</v>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
       </c>
       <c r="D180">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>437</v>
       </c>
-      <c r="B181" t="str">
-        <v>Hoàng Hải Anh</v>
-      </c>
-      <c r="C181" t="str">
-        <v>0123456789</v>
+      <c r="B181" t="s">
+        <v>185</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
       </c>
       <c r="D181">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>438</v>
       </c>
-      <c r="B182" t="str">
-        <v>Hoàng Hiếu Motor</v>
-      </c>
-      <c r="C182" t="str">
-        <v>0123456789</v>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182" t="s">
+        <v>5</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>439</v>
       </c>
-      <c r="B183" t="str">
-        <v>Hoàng Hùng</v>
-      </c>
-      <c r="C183" t="str">
-        <v>0123456789</v>
+      <c r="B183" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
       </c>
       <c r="D183">
         <v>-1</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>440</v>
       </c>
-      <c r="B184" t="str">
-        <v>Hoàng Hưởng</v>
-      </c>
-      <c r="C184" t="str">
-        <v>0123456789</v>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>441</v>
       </c>
-      <c r="B185" t="str">
-        <v>Hoàng Long 16</v>
-      </c>
-      <c r="C185" t="str">
-        <v>0123456789</v>
+      <c r="B185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185" t="s">
+        <v>5</v>
       </c>
       <c r="D185">
         <v>3.25</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>442</v>
       </c>
-      <c r="B186" t="str">
-        <v>Hoàng Milano</v>
-      </c>
-      <c r="C186" t="str">
-        <v>0123456789</v>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
       </c>
       <c r="D186">
         <v>0.25</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>443</v>
       </c>
-      <c r="B187" t="str">
-        <v>Hoàng Minh Transport</v>
-      </c>
-      <c r="C187" t="str">
-        <v>0123456789</v>
+      <c r="B187" t="s">
+        <v>191</v>
+      </c>
+      <c r="C187" t="s">
+        <v>5</v>
       </c>
       <c r="D187">
         <v>0.25</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>444</v>
       </c>
-      <c r="B188" t="str">
-        <v>Hoàng Nam Sb</v>
-      </c>
-      <c r="C188" t="str">
-        <v>0123456789</v>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
+      <c r="C188" t="s">
+        <v>5</v>
       </c>
       <c r="D188">
         <v>1.25</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>256</v>
       </c>
-      <c r="B189" t="str">
-        <v>Hoàng Phong Travel</v>
-      </c>
-      <c r="C189" t="str">
-        <v>0123456789</v>
+      <c r="B189" t="s">
+        <v>193</v>
+      </c>
+      <c r="C189" t="s">
+        <v>5</v>
       </c>
       <c r="D189">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>451</v>
       </c>
-      <c r="B190" t="str">
-        <v>Hoàng Sơn TX</v>
-      </c>
-      <c r="C190" t="str">
-        <v>0123456789</v>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
       </c>
       <c r="D190">
         <v>3.75</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>445</v>
       </c>
-      <c r="B191" t="str">
-        <v>Hoàng Tâm Limosine</v>
-      </c>
-      <c r="C191" t="str">
-        <v>0123456789</v>
+      <c r="B191" t="s">
+        <v>195</v>
+      </c>
+      <c r="C191" t="s">
+        <v>5</v>
       </c>
       <c r="D191">
         <v>-1</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>446</v>
       </c>
-      <c r="B192" t="str">
-        <v>Hoàng Thắng</v>
-      </c>
-      <c r="C192" t="str">
-        <v>0123456789</v>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
+      <c r="C192" t="s">
+        <v>5</v>
       </c>
       <c r="D192">
         <v>-1</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>447</v>
       </c>
-      <c r="B193" t="str">
-        <v>Hoàng Thanh</v>
-      </c>
-      <c r="C193" t="str">
-        <v>0123456789</v>
+      <c r="B193" t="s">
+        <v>197</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
       </c>
       <c r="D193">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>448</v>
       </c>
-      <c r="B194" t="str">
-        <v>Hoàng Thu Minh Travel</v>
-      </c>
-      <c r="C194" t="str">
-        <v>0123456789</v>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
+      <c r="C194" t="s">
+        <v>5</v>
       </c>
       <c r="D194">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>449</v>
       </c>
-      <c r="B195" t="str">
-        <v>Hoàng Thuỷ</v>
-      </c>
-      <c r="C195" t="str">
-        <v>0123456789</v>
+      <c r="B195" t="s">
+        <v>199</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>450</v>
       </c>
-      <c r="B196" t="str">
-        <v>Hoàng Trần</v>
-      </c>
-      <c r="C196" t="str">
-        <v>0123456789</v>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
+      <c r="C196" t="s">
+        <v>5</v>
       </c>
       <c r="D196">
         <v>-1</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>452</v>
       </c>
-      <c r="B197" t="str">
-        <v>Hoanglong</v>
-      </c>
-      <c r="C197" t="str">
-        <v>0123456789</v>
+      <c r="B197" t="s">
+        <v>201</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>453</v>
       </c>
-      <c r="B198" t="str">
-        <v>Hồng Diệp</v>
-      </c>
-      <c r="C198" t="str">
-        <v>0123456789</v>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>454</v>
       </c>
-      <c r="B199" t="str">
-        <v>Hồng Hải</v>
-      </c>
-      <c r="C199" t="str">
-        <v>0123456789</v>
+      <c r="B199" t="s">
+        <v>203</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
       </c>
       <c r="D199">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>455</v>
       </c>
-      <c r="B200" t="str">
-        <v>Hồng Kim</v>
-      </c>
-      <c r="C200" t="str">
-        <v>0123456789</v>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
       </c>
       <c r="D200">
         <v>1.5</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>456</v>
       </c>
-      <c r="B201" t="str">
-        <v>Hợp Đặng</v>
-      </c>
-      <c r="C201" t="str">
-        <v>0123456789</v>
+      <c r="B201" t="s">
+        <v>205</v>
+      </c>
+      <c r="C201" t="s">
+        <v>5</v>
       </c>
       <c r="D201">
         <v>-1</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>458</v>
       </c>
-      <c r="B202" t="str">
-        <v>Htdtrands</v>
-      </c>
-      <c r="C202" t="str">
-        <v>0123456789</v>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
+      <c r="C202" t="s">
+        <v>5</v>
       </c>
       <c r="D202">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>459</v>
       </c>
-      <c r="B203" t="str">
-        <v>Htktravelcomvn</v>
-      </c>
-      <c r="C203" t="str">
-        <v>0123456789</v>
+      <c r="B203" t="s">
+        <v>207</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
       </c>
       <c r="D203">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>460</v>
       </c>
-      <c r="B204" t="str">
-        <v>Hùng Bạch Mai</v>
-      </c>
-      <c r="C204" t="str">
-        <v>0123456789</v>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
+      <c r="C204" t="s">
+        <v>5</v>
       </c>
       <c r="D204">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>457</v>
       </c>
-      <c r="B205" t="str">
-        <v>Hùng Chuyên Tuyến Nội Bài</v>
-      </c>
-      <c r="C205" t="str">
-        <v>0123456789</v>
+      <c r="B205" t="s">
+        <v>209</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
       </c>
       <c r="D205">
         <v>-1</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>461</v>
       </c>
-      <c r="B206" t="str">
-        <v>Hưng Doãn Thế</v>
-      </c>
-      <c r="C206" t="str">
-        <v>0123456789</v>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
+      <c r="C206" t="s">
+        <v>5</v>
       </c>
       <c r="D206">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>462</v>
       </c>
-      <c r="B207" t="str">
-        <v>Hùng Hải Airport</v>
-      </c>
-      <c r="C207" t="str">
-        <v>0123456789</v>
+      <c r="B207" t="s">
+        <v>211</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
       </c>
       <c r="D207">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>463</v>
       </c>
-      <c r="B208" t="str">
-        <v>Hùng Kyn</v>
-      </c>
-      <c r="C208" t="str">
-        <v>0123456789</v>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
       </c>
       <c r="D208">
         <v>0.5</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>464</v>
       </c>
-      <c r="B209" t="str">
-        <v>Hùng Năm Hai</v>
-      </c>
-      <c r="C209" t="str">
-        <v>0123456789</v>
+      <c r="B209" t="s">
+        <v>213</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
       </c>
       <c r="D209">
         <v>-1</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>465</v>
       </c>
-      <c r="B210" t="str">
-        <v>Hungyn</v>
-      </c>
-      <c r="C210" t="str">
-        <v>0123456789</v>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
       </c>
       <c r="D210">
         <v>-1.75</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>473</v>
       </c>
-      <c r="B211" t="str">
-        <v>Hương Minh Anh</v>
-      </c>
-      <c r="C211" t="str">
-        <v>0123456789</v>
+      <c r="B211" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
       </c>
       <c r="D211">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>466</v>
       </c>
-      <c r="B212" t="str">
-        <v>Hữu Thành</v>
-      </c>
-      <c r="C212" t="str">
-        <v>0123456789</v>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
       </c>
       <c r="D212">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>467</v>
       </c>
-      <c r="B213" t="str">
-        <v>Huy</v>
-      </c>
-      <c r="C213" t="str">
-        <v>0123456789</v>
+      <c r="B213" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213" t="s">
+        <v>5</v>
       </c>
       <c r="D213">
         <v>0.25</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>468</v>
       </c>
-      <c r="B214" t="str">
-        <v>Huy Dzee</v>
-      </c>
-      <c r="C214" t="str">
-        <v>0123456789</v>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214" t="s">
+        <v>5</v>
       </c>
       <c r="D214">
         <v>-1</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>469</v>
       </c>
-      <c r="B215" t="str">
-        <v>Huy Tây Hồ</v>
-      </c>
-      <c r="C215" t="str">
-        <v>0123456789</v>
+      <c r="B215" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
       </c>
       <c r="D215">
         <v>0.5</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>470</v>
       </c>
-      <c r="B216" t="str">
-        <v>Huy võ Limosine</v>
-      </c>
-      <c r="C216" t="str">
-        <v>0123456789</v>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
+      <c r="C216" t="s">
+        <v>5</v>
       </c>
       <c r="D216">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>471</v>
       </c>
-      <c r="B217" t="str">
-        <v>Huyhuy</v>
-      </c>
-      <c r="C217" t="str">
-        <v>0123456789</v>
+      <c r="B217" t="s">
+        <v>221</v>
+      </c>
+      <c r="C217" t="s">
+        <v>5</v>
       </c>
       <c r="D217">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>472</v>
       </c>
-      <c r="B218" t="str">
-        <v>Huỳnh Văn Dũng</v>
-      </c>
-      <c r="C218" t="str">
-        <v>0123456789</v>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>476</v>
       </c>
-      <c r="B219" t="str">
-        <v>Imperia Airport</v>
-      </c>
-      <c r="C219" t="str">
-        <v>0123456789</v>
+      <c r="B219" t="s">
+        <v>223</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>477</v>
       </c>
-      <c r="B220" t="str">
-        <v>Jin Pc</v>
-      </c>
-      <c r="C220" t="str">
-        <v>0123456789</v>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
       </c>
       <c r="D220">
         <v>-1</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>498</v>
       </c>
-      <c r="B221" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C221" t="str">
-        <v>0123456789</v>
+      <c r="B221" t="s">
+        <v>225</v>
+      </c>
+      <c r="C221" t="s">
+        <v>5</v>
       </c>
       <c r="D221">
         <v>12.5</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>492</v>
       </c>
-      <c r="B222" t="str">
-        <v>Kế toán Pgroup</v>
-      </c>
-      <c r="C222" t="str">
-        <v>0123456789</v>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
       </c>
       <c r="D222">
         <v>0.5</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>478</v>
       </c>
-      <c r="B223" t="str">
-        <v>Kekhukho</v>
-      </c>
-      <c r="C223" t="str">
-        <v>0123456789</v>
+      <c r="B223" t="s">
+        <v>227</v>
+      </c>
+      <c r="C223" t="s">
+        <v>5</v>
       </c>
       <c r="D223">
         <v>-1</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>257</v>
       </c>
-      <c r="B224" t="str">
-        <v>Kevin</v>
-      </c>
-      <c r="C224" t="str">
-        <v>0123456789</v>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224" t="s">
+        <v>5</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>479</v>
       </c>
-      <c r="B225" t="str">
-        <v>Khắc Định</v>
-      </c>
-      <c r="C225" t="str">
-        <v>0123456789</v>
+      <c r="B225" t="s">
+        <v>229</v>
+      </c>
+      <c r="C225" t="s">
+        <v>5</v>
       </c>
       <c r="D225">
         <v>11</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>481</v>
       </c>
-      <c r="B226" t="str">
-        <v>Khang Vũ Airport</v>
-      </c>
-      <c r="C226" t="str">
-        <v>0123456789</v>
+      <c r="B226" t="s">
+        <v>230</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
       </c>
       <c r="D226">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>480</v>
       </c>
-      <c r="B227" t="str">
-        <v>Khangvinh Dh</v>
-      </c>
-      <c r="C227" t="str">
-        <v>0123456789</v>
+      <c r="B227" t="s">
+        <v>231</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
       </c>
       <c r="D227">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>482</v>
       </c>
-      <c r="B228" t="str">
-        <v>Khanh Bỉ</v>
-      </c>
-      <c r="C228" t="str">
-        <v>0123456789</v>
+      <c r="B228" t="s">
+        <v>232</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
       </c>
       <c r="D228">
         <v>0</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>483</v>
       </c>
-      <c r="B229" t="str">
-        <v>Khánh Driver</v>
-      </c>
-      <c r="C229" t="str">
-        <v>0123456789</v>
+      <c r="B229" t="s">
+        <v>233</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
       </c>
       <c r="D229">
         <v>-1</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>484</v>
       </c>
-      <c r="B230" t="str">
-        <v>Khánh Toàn</v>
-      </c>
-      <c r="C230" t="str">
-        <v>0123456789</v>
+      <c r="B230" t="s">
+        <v>234</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
       </c>
       <c r="D230">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>485</v>
       </c>
-      <c r="B231" t="str">
-        <v>Khoa Diamond</v>
-      </c>
-      <c r="C231" t="str">
-        <v>0123456789</v>
+      <c r="B231" t="s">
+        <v>235</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
       </c>
       <c r="D231">
         <v>0.5</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>491</v>
       </c>
-      <c r="B232" t="str">
-        <v>Khoa Nguyen</v>
-      </c>
-      <c r="C232" t="str">
-        <v>0123456789</v>
+      <c r="B232" t="s">
+        <v>236</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
       </c>
       <c r="D232">
         <v>2.5</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>486</v>
       </c>
-      <c r="B233" t="str">
-        <v>Kiên Na Vnec</v>
-      </c>
-      <c r="C233" t="str">
-        <v>0123456789</v>
+      <c r="B233" t="s">
+        <v>237</v>
+      </c>
+      <c r="C233" t="s">
+        <v>5</v>
       </c>
       <c r="D233">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>487</v>
       </c>
-      <c r="B234" t="str">
-        <v>Kien Ngo Van</v>
-      </c>
-      <c r="C234" t="str">
-        <v>0123456789</v>
+      <c r="B234" t="s">
+        <v>238</v>
+      </c>
+      <c r="C234" t="s">
+        <v>5</v>
       </c>
       <c r="D234">
         <v>3</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>488</v>
       </c>
-      <c r="B235" t="str">
-        <v>Kiên Tp</v>
-      </c>
-      <c r="C235" t="str">
-        <v>0123456789</v>
+      <c r="B235" t="s">
+        <v>239</v>
+      </c>
+      <c r="C235" t="s">
+        <v>5</v>
       </c>
       <c r="D235">
         <v>9.5</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>489</v>
       </c>
-      <c r="B236" t="str">
-        <v>Kiên Trang Vũ</v>
-      </c>
-      <c r="C236" t="str">
-        <v>0123456789</v>
+      <c r="B236" t="s">
+        <v>240</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
       </c>
       <c r="D236">
         <v>0.25</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>390</v>
       </c>
-      <c r="B237" t="str">
-        <v>Kiến Vàng Travel Car</v>
-      </c>
-      <c r="C237" t="str">
-        <v>0123456789</v>
+      <c r="B237" t="s">
+        <v>241</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>490</v>
       </c>
-      <c r="B238" t="str">
-        <v>Kiên Vũ</v>
-      </c>
-      <c r="C238" t="str">
-        <v>0123456789</v>
+      <c r="B238" t="s">
+        <v>242</v>
+      </c>
+      <c r="C238" t="s">
+        <v>5</v>
       </c>
       <c r="D238">
         <v>-1</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>501</v>
       </c>
-      <c r="B239" t="str">
-        <v>Lê Thị Kim Yến</v>
-      </c>
-      <c r="C239" t="str">
-        <v/>
+      <c r="B239" t="s">
+        <v>243</v>
+      </c>
+      <c r="C239" t="s">
+        <v>15</v>
       </c>
       <c r="D239">
         <v>18</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>264</v>
       </c>
-      <c r="B240" t="str">
-        <v>Ngô Quang Dũng</v>
-      </c>
-      <c r="C240" t="str">
-        <v>0123456789</v>
+      <c r="B240" t="s">
+        <v>244</v>
+      </c>
+      <c r="C240" t="s">
+        <v>5</v>
       </c>
       <c r="D240">
         <v>-3.5</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>262</v>
       </c>
-      <c r="B241" t="str">
-        <v>Nguyễn Hải</v>
-      </c>
-      <c r="C241" t="str">
-        <v>0123456789</v>
+      <c r="B241" t="s">
+        <v>245</v>
+      </c>
+      <c r="C241" t="s">
+        <v>5</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>248</v>
       </c>
-      <c r="B242" t="str">
-        <v>Nguyễn Quốc Đại</v>
-      </c>
-      <c r="C242" t="str">
-        <v>0123456789</v>
+      <c r="B242" t="s">
+        <v>246</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>281</v>
       </c>
-      <c r="B243" t="str">
-        <v>Nguyễn Tanh</v>
-      </c>
-      <c r="C243" t="str">
-        <v>0123456789</v>
+      <c r="B243" t="s">
+        <v>247</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
       </c>
       <c r="D243">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>508</v>
       </c>
-      <c r="B244" t="str">
-        <v>Nhất Sân Bay</v>
-      </c>
-      <c r="C244" t="str">
-        <v>0123456789</v>
+      <c r="B244" t="s">
+        <v>248</v>
+      </c>
+      <c r="C244" t="s">
+        <v>5</v>
       </c>
       <c r="D244">
         <v>0.5</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>496</v>
       </c>
-      <c r="B245" t="str">
-        <v>Nhimcoi</v>
-      </c>
-      <c r="C245" t="str">
-        <v>0123456789</v>
+      <c r="B245" t="s">
+        <v>249</v>
+      </c>
+      <c r="C245" t="s">
+        <v>5</v>
       </c>
       <c r="D245">
         <v>11.75</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>503</v>
       </c>
-      <c r="B246" t="str">
-        <v>Phạm Hiếu Đh Limo Green</v>
-      </c>
-      <c r="C246" t="str">
-        <v/>
+      <c r="B246" t="s">
+        <v>250</v>
+      </c>
+      <c r="C246" t="s">
+        <v>15</v>
       </c>
       <c r="D246">
         <v>12</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>504</v>
       </c>
-      <c r="B247" t="str">
-        <v>Phoenix</v>
-      </c>
-      <c r="C247" t="str">
-        <v/>
+      <c r="B247" t="s">
+        <v>251</v>
+      </c>
+      <c r="C247" t="s">
+        <v>15</v>
       </c>
       <c r="D247">
         <v>11</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>419</v>
       </c>
-      <c r="B248" t="str">
-        <v>Posedion</v>
-      </c>
-      <c r="C248" t="str">
-        <v>0123456789</v>
+      <c r="B248" t="s">
+        <v>252</v>
+      </c>
+      <c r="C248" t="s">
+        <v>5</v>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>388</v>
       </c>
-      <c r="B249" t="str">
-        <v>Private Car Transfer In Hanoi Airport</v>
-      </c>
-      <c r="C249" t="str">
-        <v>0123456789</v>
+      <c r="B249" t="s">
+        <v>253</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
       </c>
       <c r="D249">
         <v>0</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>258</v>
       </c>
-      <c r="B250" t="str">
-        <v>Quang Hiệp</v>
-      </c>
-      <c r="C250" t="str">
-        <v>0123456789</v>
+      <c r="B250" t="s">
+        <v>254</v>
+      </c>
+      <c r="C250" t="s">
+        <v>5</v>
       </c>
       <c r="D250">
         <v>-2.75</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>259</v>
       </c>
-      <c r="B251" t="str">
-        <v>Thu Trần</v>
-      </c>
-      <c r="C251" t="str">
-        <v>0123456789</v>
+      <c r="B251" t="s">
+        <v>255</v>
+      </c>
+      <c r="C251" t="s">
+        <v>5</v>
       </c>
       <c r="D251">
         <v>2.25</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>338</v>
       </c>
-      <c r="B252" t="str">
-        <v>Tiểu Ngưu</v>
-      </c>
-      <c r="C252" t="str">
-        <v>0123456789</v>
+      <c r="B252" t="s">
+        <v>256</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>502</v>
       </c>
-      <c r="B253" t="str">
-        <v>Tmanhcuong</v>
-      </c>
-      <c r="C253" t="str">
-        <v/>
+      <c r="B253" t="s">
+        <v>257</v>
+      </c>
+      <c r="C253" t="s">
+        <v>15</v>
       </c>
       <c r="D253">
         <v>15</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>296</v>
       </c>
-      <c r="B254" t="str">
-        <v>Tôn Anh Dương</v>
-      </c>
-      <c r="C254" t="str">
-        <v>0123456789</v>
+      <c r="B254" t="s">
+        <v>258</v>
+      </c>
+      <c r="C254" t="s">
+        <v>5</v>
       </c>
       <c r="D254">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>260</v>
       </c>
-      <c r="B255" t="str">
-        <v>Trang Dcar Limosine</v>
-      </c>
-      <c r="C255" t="str">
-        <v>0123456789</v>
+      <c r="B255" t="s">
+        <v>259</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>494</v>
       </c>
-      <c r="B256" t="str">
-        <v>Tú Vios</v>
-      </c>
-      <c r="C256" t="str">
-        <v>0123456789</v>
+      <c r="B256" t="s">
+        <v>260</v>
+      </c>
+      <c r="C256" t="s">
+        <v>5</v>
       </c>
       <c r="D256">
         <v>12</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>499</v>
       </c>
-      <c r="B257" t="str">
-        <v>Tuấn Ba</v>
-      </c>
-      <c r="C257" t="str">
-        <v/>
+      <c r="B257" t="s">
+        <v>261</v>
+      </c>
+      <c r="C257" t="s">
+        <v>15</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>249</v>
       </c>
-      <c r="B258" t="str">
-        <v>Vận Tải Minh Tâm</v>
-      </c>
-      <c r="C258" t="str">
-        <v>0123456789</v>
+      <c r="B258" t="s">
+        <v>262</v>
+      </c>
+      <c r="C258" t="s">
+        <v>5</v>
       </c>
       <c r="D258">
         <v>-3.25</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>500</v>
       </c>
-      <c r="B259" t="str">
-        <v>Việt Tiệp</v>
-      </c>
-      <c r="C259" t="str">
-        <v/>
+      <c r="B259" t="s">
+        <v>263</v>
+      </c>
+      <c r="C259" t="s">
+        <v>15</v>
       </c>
       <c r="D259">
         <v>2</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>495</v>
       </c>
-      <c r="B260" t="str">
-        <v>Vinh Đại Ca Nguyễn Ngọc Vinh</v>
-      </c>
-      <c r="C260" t="str">
-        <v>0123456789</v>
+      <c r="B260" t="s">
+        <v>264</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
       </c>
       <c r="D260">
         <v>8</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>497</v>
       </c>
-      <c r="B261" t="str">
-        <v>Vũ Thanh</v>
-      </c>
-      <c r="C261" t="str">
-        <v>0123456789</v>
+      <c r="B261" t="s">
+        <v>265</v>
+      </c>
+      <c r="C261" t="s">
+        <v>5</v>
       </c>
       <c r="D261">
         <v>9.25</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>321</v>
       </c>
-      <c r="B262" t="str">
-        <v>Xe Sân Bay Bảo Phúc</v>
-      </c>
-      <c r="C262" t="str">
-        <v>0123456789</v>
+      <c r="B262" t="s">
+        <v>266</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
       </c>
       <c r="D262">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D262"/>
+    <ignoredError sqref="A1:D262" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Người gửi</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Người nhận</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Loại giao dịch</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Số điểm</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Nội dung</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Ngày giờ</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>35</v>
       </c>
-      <c r="B2" t="str">
-        <v>Tú Vios</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Vinh Đại Ca Nguyễn Ngọc Vinh</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Giao lịch</v>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
       </c>
       <c r="E2">
         <v>0.5</v>
       </c>
-      <c r="F2" t="str">
-        <v>Tiên 13h30 6 phạm ngũ lão sedan ki10 thu 200k</v>
-      </c>
-      <c r="G2" t="str">
-        <v>16:35:06 5/12/2025</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>36</v>
       </c>
-      <c r="B3" t="str">
-        <v>Nhimcoi</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Vũ Thanh</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Giao lịch</v>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
       </c>
       <c r="E3">
         <v>0.25</v>
       </c>
-      <c r="F3" t="str">
-        <v>Oke 12:30  housinco  n.xiển&gt;&gt; sân bay t1 sedan b lx ko vội ck220k</v>
-      </c>
-      <c r="G3" t="str">
-        <v>16:35:06 5/12/2025</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>34</v>
       </c>
-      <c r="B4" t="str">
-        <v>Vũ Thanh</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Nhimcoi</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Hủy lịch</v>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" t="s">
+        <v>277</v>
       </c>
       <c r="E4">
         <v>0.25</v>
       </c>
-      <c r="F4" t="str">
-        <v>Hủy lịch: Oke 12:30  housinco  n.xiển&gt;&gt; sân bay t1 sedan b lx ko vội ck220k</v>
-      </c>
-      <c r="G4" t="str">
-        <v>14:03:36 5/12/2025</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="F4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>26</v>
       </c>
-      <c r="B5" t="str">
-        <v>Tuấn Ba</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="D5" t="str">
-        <v>San điểm</v>
+      <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>280</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" t="str">
-        <v>Toán Full House</v>
-      </c>
-      <c r="G5" t="str">
-        <v>13:57:40 5/12/2025</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="F5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>27</v>
       </c>
-      <c r="B6" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Lê Thị Kim Yến</v>
-      </c>
-      <c r="D6" t="str">
-        <v>San điểm</v>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" t="s">
+        <v>280</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" t="str">
-        <v>@Lê Thị Kim Yến 4đ</v>
-      </c>
-      <c r="G6" t="str">
-        <v>13:57:40 5/12/2025</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="F6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>28</v>
       </c>
-      <c r="B7" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Việt Tiệp</v>
-      </c>
-      <c r="D7" t="str">
-        <v>San điểm</v>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="str">
-        <v>@Việt Tiệp 1đ</v>
-      </c>
-      <c r="G7" t="str">
-        <v>13:57:40 5/12/2025</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="F7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>29</v>
       </c>
-      <c r="B8" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Tmanhcuong</v>
-      </c>
-      <c r="D8" t="str">
-        <v>San điểm</v>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
       </c>
       <c r="E8">
         <v>2.5</v>
       </c>
-      <c r="F8" t="str">
-        <v>@Tmanhcuong 2.5đ</v>
-      </c>
-      <c r="G8" t="str">
-        <v>13:57:40 5/12/2025</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>30</v>
       </c>
-      <c r="B9" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Phạm Hiếu Đh Limo Green</v>
-      </c>
-      <c r="D9" t="str">
-        <v>San điểm</v>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="str">
-        <v>@Phạm Hiếu Đh Limo Green 1đ</v>
-      </c>
-      <c r="G9" t="str">
-        <v>13:57:40 5/12/2025</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="F9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>31</v>
       </c>
-      <c r="B10" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Phoenix</v>
-      </c>
-      <c r="D10" t="str">
-        <v>San điểm</v>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>280</v>
       </c>
       <c r="E10">
         <v>0.5</v>
       </c>
-      <c r="F10" t="str">
-        <v>@Phoenix 0.5</v>
-      </c>
-      <c r="G10" t="str">
-        <v>13:57:40 5/12/2025</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="F10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>32</v>
       </c>
-      <c r="B11" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Anh Điệp</v>
-      </c>
-      <c r="D11" t="str">
-        <v>San điểm</v>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>280</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
-      <c r="F11" t="str">
-        <v>@Anh Điệp  Thuê Xe Giang Gia 0.5</v>
-      </c>
-      <c r="G11" t="str">
-        <v>13:57:40 5/12/2025</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="F11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>33</v>
       </c>
-      <c r="B12" t="str">
-        <v>Đức Trọng</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="D12" t="str">
-        <v>San điểm</v>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>280</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" t="str">
-        <v>Anh   4d   Toán Full House</v>
-      </c>
-      <c r="G12" t="str">
-        <v>13:57:40 5/12/2025</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="F12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>19</v>
       </c>
-      <c r="B13" t="str">
-        <v>Tuấn Ba</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="D13" t="str">
-        <v>San điểm</v>
+      <c r="B13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" t="s">
+        <v>280</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13" t="str">
-        <v>@Kế Toán Full House 5đ</v>
-      </c>
-      <c r="G13" t="str">
-        <v>13:53:16 5/12/2025</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="F13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20</v>
       </c>
-      <c r="B14" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Lê Thị Kim Yến</v>
-      </c>
-      <c r="D14" t="str">
-        <v>San điểm</v>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" t="s">
+        <v>280</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" t="str">
-        <v>@Lê Thị Kim Yến 4đ</v>
-      </c>
-      <c r="G14" t="str">
-        <v>13:53:16 5/12/2025</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="F14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>21</v>
       </c>
-      <c r="B15" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Việt Tiệp</v>
-      </c>
-      <c r="D15" t="str">
-        <v>San điểm</v>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" t="s">
+        <v>280</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="str">
-        <v>@Việt Tiệp 1đ</v>
-      </c>
-      <c r="G15" t="str">
-        <v>13:53:16 5/12/2025</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="F15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22</v>
       </c>
-      <c r="B16" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Tmanhcuong</v>
-      </c>
-      <c r="D16" t="str">
-        <v>San điểm</v>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" t="s">
+        <v>280</v>
       </c>
       <c r="E16">
         <v>2.5</v>
       </c>
-      <c r="F16" t="str">
-        <v>@Tmanhcuong 2.5đ</v>
-      </c>
-      <c r="G16" t="str">
-        <v>13:53:16 5/12/2025</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="F16" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>23</v>
       </c>
-      <c r="B17" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Phạm Hiếu Đh Limo Green</v>
-      </c>
-      <c r="D17" t="str">
-        <v>San điểm</v>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" t="s">
+        <v>280</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="str">
-        <v>@Phạm Hiếu Đh Limo Green 1đ</v>
-      </c>
-      <c r="G17" t="str">
-        <v>13:53:16 5/12/2025</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="F17" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>24</v>
       </c>
-      <c r="B18" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Phoenix</v>
-      </c>
-      <c r="D18" t="str">
-        <v>San điểm</v>
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" t="s">
+        <v>280</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
-      <c r="F18" t="str">
-        <v>@Phoenix 0.5</v>
-      </c>
-      <c r="G18" t="str">
-        <v>13:53:16 5/12/2025</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="F18" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>25</v>
       </c>
-      <c r="B19" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Anh Điệp</v>
-      </c>
-      <c r="D19" t="str">
-        <v>San điểm</v>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>280</v>
       </c>
       <c r="E19">
         <v>0.5</v>
       </c>
-      <c r="F19" t="str">
-        <v>@Anh Điệp  Thuê Xe Giang Gia 0.5</v>
-      </c>
-      <c r="G19" t="str">
-        <v>13:53:16 5/12/2025</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="F19" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Cao Việt Long</v>
-      </c>
-      <c r="D20" t="str">
-        <v>San điểm</v>
+      <c r="B20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>280</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="str">
-        <v>@Việt Tiệp 1đ</v>
-      </c>
-      <c r="G20" t="str">
-        <v>13:50:40 5/12/2025</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="F20" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Vũ Thanh</v>
-      </c>
-      <c r="D21" t="str">
-        <v>San điểm</v>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" t="s">
+        <v>280</v>
       </c>
       <c r="E21">
         <v>0.5</v>
       </c>
-      <c r="F21" t="str">
-        <v>@Anh Điệp  Thuê Xe Giang Gia 0.5</v>
-      </c>
-      <c r="G21" t="str">
-        <v>13:50:40 5/12/2025</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="F21" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>15</v>
       </c>
-      <c r="B22" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Cao Việt Long</v>
-      </c>
-      <c r="D22" t="str">
-        <v>San điểm</v>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>280</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="str">
-        <v>@Việt Tiệp 1đ</v>
-      </c>
-      <c r="G22" t="str">
-        <v>13:50:12 5/12/2025</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="F22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>16</v>
       </c>
-      <c r="B23" t="str">
-        <v>Kế Toán Full House</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Vũ Thanh</v>
-      </c>
-      <c r="D23" t="str">
-        <v>San điểm</v>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" t="s">
+        <v>280</v>
       </c>
       <c r="E23">
         <v>0.5</v>
       </c>
-      <c r="F23" t="str">
-        <v>@Anh Điệp  Thuê Xe Giang Gia 0.5</v>
-      </c>
-      <c r="G23" t="str">
-        <v>13:50:12 5/12/2025</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="F23" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>13</v>
       </c>
-      <c r="B24" t="str">
-        <v>Nhimcoi</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Vũ Thanh</v>
-      </c>
-      <c r="D24" t="str">
-        <v>Giao lịch</v>
+      <c r="B24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>273</v>
       </c>
       <c r="E24">
         <v>0.25</v>
       </c>
-      <c r="F24" t="str">
-        <v>Oke 12:30  housinco  n.xiển&gt;&gt; sân bay t1 sedan b lx ko vội ck220k</v>
-      </c>
-      <c r="G24" t="str">
-        <v>13:36:56 5/12/2025</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="F24" t="s">
+        <v>276</v>
+      </c>
+      <c r="G24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>14</v>
       </c>
-      <c r="B25" t="str">
-        <v>Tú Vios</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Vinh Đại Ca Nguyễn Ngọc Vinh</v>
-      </c>
-      <c r="D25" t="str">
-        <v>Giao lịch</v>
+      <c r="B25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" t="s">
+        <v>273</v>
       </c>
       <c r="E25">
         <v>0.5</v>
       </c>
-      <c r="F25" t="str">
-        <v>Tiên 13h30 6 phạm ngũ lão sedan ki10 thu 200k</v>
-      </c>
-      <c r="G25" t="str">
-        <v>13:36:56 5/12/2025</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="F25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>11</v>
       </c>
-      <c r="B26" t="str">
-        <v>Tú Vios</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Vinh Đại Ca Nguyễn Ngọc Vinh</v>
-      </c>
-      <c r="D26" t="str">
-        <v>Giao lịch</v>
+      <c r="B26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" t="s">
+        <v>273</v>
       </c>
       <c r="E26">
         <v>0.5</v>
       </c>
-      <c r="F26" t="str">
-        <v>Tiên 13h30 6 phạm ngũ lão sedan ki10 thu 200k</v>
-      </c>
-      <c r="G26" t="str">
-        <v>13:10:47 5/12/2025</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="F26" t="s">
+        <v>274</v>
+      </c>
+      <c r="G26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>12</v>
       </c>
-      <c r="B27" t="str">
-        <v>Nhimcoi</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Vũ Thanh</v>
-      </c>
-      <c r="D27" t="str">
-        <v>Giao lịch</v>
+      <c r="B27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" t="s">
+        <v>273</v>
       </c>
       <c r="E27">
         <v>0.5</v>
       </c>
-      <c r="F27" t="str">
-        <v>Oke 12:30  housinco  n.xiển&gt;&gt; sân bay t1 sedan b lx ko vội ck220k</v>
-      </c>
-      <c r="G27" t="str">
-        <v>13:10:47 5/12/2025</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="F27" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" t="str">
-        <v>Tú Vios</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Vinh Đại Ca Nguyễn Ngọc Vinh</v>
-      </c>
-      <c r="D28" t="str">
-        <v>Giao lịch</v>
+      <c r="B28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" t="s">
+        <v>273</v>
       </c>
       <c r="E28">
         <v>0.5</v>
       </c>
-      <c r="F28" t="str">
-        <v>Tiên 13h30 6 phạm ngũ lão sedan ki10 thu 200k</v>
-      </c>
-      <c r="G28" t="str">
-        <v>12:50:05 5/12/2025</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="F28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29" t="str">
-        <v>Nhimcoi</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Vũ Thanh</v>
-      </c>
-      <c r="D29" t="str">
-        <v>Giao lịch</v>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" t="s">
+        <v>273</v>
       </c>
       <c r="E29">
         <v>0.5</v>
       </c>
-      <c r="F29" t="str">
-        <v>Oke 12:30  housinco  n.xiển&gt;&gt; sân bay t1 sedan b lx ko vội ck220k</v>
-      </c>
-      <c r="G29" t="str">
-        <v>12:50:05 5/12/2025</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
-      <c r="B30" t="str">
-        <v>Kế toán Pgroup</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Admin1</v>
-      </c>
-      <c r="D30" t="str">
-        <v>Giao lịch</v>
+      <c r="B30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>273</v>
       </c>
       <c r="E30">
         <v>0.5</v>
       </c>
-      <c r="F30" t="str">
-        <v>Tiên 13h30 6 phạm ngũ lão sedan ki10 thu 200k</v>
-      </c>
-      <c r="G30" t="str">
-        <v>12:00:41 5/12/2025</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="F30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" t="str">
-        <v>Admin1</v>
-      </c>
-      <c r="C31" t="str">
-        <v>Kế toán Pgroup</v>
-      </c>
-      <c r="D31" t="str">
-        <v>Giao lịch</v>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" t="s">
+        <v>273</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31" t="str">
-        <v/>
-      </c>
-      <c r="G31" t="str">
-        <v>11:46:49 5/12/2025</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
-      <c r="B32" t="str">
-        <v>Admin1</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Kế toán Pgroup</v>
-      </c>
-      <c r="D32" t="str">
-        <v>Giao lịch</v>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" t="s">
+        <v>273</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" t="str">
-        <v>5</v>
-      </c>
-      <c r="G32" t="str">
-        <v>11:45:48 5/12/2025</v>
+      <c r="F32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G32" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G32"/>
+    <ignoredError sqref="A1:G32" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>